--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -32,6 +32,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>RevenueRecords</t>
     </r>
     <r>
@@ -342,7 +348,7 @@
     <t>来源标记</t>
   </si>
   <si>
-    <t>包含的值：Server(服务端修改）、Client（客户端上传）</t>
+    <t>包含的值：Admin(管理员修改）、User（用户上传）</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
